--- a/QA/testcases/CPR/CPR_Smoke_Test.xlsx
+++ b/QA/testcases/CPR/CPR_Smoke_Test.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\fipsar_wp_automation\QA\testcases\CPR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1302F933-71E9-4893-8FB8-92DCF4F7BE89}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="121">
   <si>
     <t>Step No</t>
   </si>
@@ -379,19 +385,16 @@
   </si>
   <si>
     <t>TypeUpload</t>
+  </si>
+  <si>
+    <t>CPRSmokeTest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,152 +429,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,8 +439,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
     <fill>
@@ -596,194 +455,8 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -793,16 +466,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399884029663991"/>
+        <color theme="4" tint="0.39985351115451523"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.399884029663991"/>
+        <color theme="4" tint="0.39985351115451523"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399884029663991"/>
+        <color theme="4" tint="0.39985351115451523"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399884029663991"/>
+        <color theme="4" tint="0.39985351115451523"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,10 +483,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,262 +503,20 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,68 +539,24 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Xpath"/>
@@ -1184,7 +571,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="#REF"/>
@@ -1197,18 +584,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="C1:C99" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="C1:C99" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="Actions"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Actions"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="LocateBy"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="LocateBy"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1466,28 +853,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.57142857142857" customWidth="1"/>
-    <col min="2" max="2" width="15.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="9.42857142857143" customWidth="1"/>
-    <col min="4" max="4" width="11.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="10.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="17.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="30.1428571428571" customWidth="1"/>
-    <col min="8" max="8" width="15.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1521,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1535,38 +922,46 @@
       <c r="H2" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
-      <formula1>[1]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 B1:B2">
-      <formula1>'[2]#REF'!#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\qa-automation\qa-automation\Zillion\testcases\Quick Start\Enrollment\[QS_Enrollment_EmailAndPasswordPageFieldValidations.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>'[#REF!]#REF'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2 B1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="D100" sqref="D100:L105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5714285714286" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85714285714286" style="1"/>
-    <col min="3" max="3" width="52.5714285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.2857142857143" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85714285714286" style="1"/>
+    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="52.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1574,7 +969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1582,7 +977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1590,7 +985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1598,7 +993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1606,7 +1001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1614,7 +1009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1622,7 +1017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1630,7 +1025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:4">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1641,7 +1036,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1649,7 +1044,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1657,62 +1052,62 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="3:3">
+    <row r="12" spans="1:4">
       <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="3:3">
+    <row r="13" spans="1:4">
       <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="3:3">
+    <row r="14" spans="1:4">
       <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="3:3">
+    <row r="15" spans="1:4">
       <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="3:3">
+    <row r="16" spans="1:4">
       <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="3:3">
+    <row r="17" spans="3:4">
       <c r="C17" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="3:3">
+    <row r="18" spans="3:4">
       <c r="C18" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="3:3">
+    <row r="19" spans="3:4">
       <c r="C19" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="3:3">
+    <row r="20" spans="3:4">
       <c r="C20" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="3:3">
+    <row r="21" spans="3:4">
       <c r="C21" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="3:3">
+    <row r="22" spans="3:4">
       <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="3:4">
+    <row r="23" spans="3:4">
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
@@ -1720,242 +1115,242 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="3:3">
+    <row r="24" spans="3:4">
       <c r="C24" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="3:3">
+    <row r="25" spans="3:4">
       <c r="C25" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="3:3">
+    <row r="26" spans="3:4">
       <c r="C26" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="3:3">
+    <row r="27" spans="3:4">
       <c r="C27" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="3:3">
+    <row r="28" spans="3:4">
       <c r="C28" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="3:3">
+    <row r="29" spans="3:4">
       <c r="C29" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="3:3">
+    <row r="30" spans="3:4">
       <c r="C30" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="3:3">
+    <row r="31" spans="3:4">
       <c r="C31" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="3:3">
+    <row r="32" spans="3:4">
       <c r="C32" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="3:3">
+    <row r="33" spans="3:3">
       <c r="C33" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" spans="3:3">
+    <row r="34" spans="3:3">
       <c r="C34" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="3:3">
+    <row r="35" spans="3:3">
       <c r="C35" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="3:3">
+    <row r="36" spans="3:3">
       <c r="C36" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="3:3">
+    <row r="37" spans="3:3">
       <c r="C37" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="3:3">
+    <row r="38" spans="3:3">
       <c r="C38" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" spans="3:3">
+    <row r="39" spans="3:3">
       <c r="C39" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="3:3">
+    <row r="40" spans="3:3">
       <c r="C40" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" spans="3:3">
+    <row r="41" spans="3:3">
       <c r="C41" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" spans="3:3">
+    <row r="42" spans="3:3">
       <c r="C42" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" spans="3:3">
+    <row r="43" spans="3:3">
       <c r="C43" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" spans="3:3">
+    <row r="44" spans="3:3">
       <c r="C44" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" spans="3:3">
+    <row r="45" spans="3:3">
       <c r="C45" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" spans="3:3">
+    <row r="46" spans="3:3">
       <c r="C46" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" spans="3:3">
+    <row r="47" spans="3:3">
       <c r="C47" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="3:3">
+    <row r="48" spans="3:3">
       <c r="C48" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" spans="3:3">
+    <row r="49" spans="3:3">
       <c r="C49" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" spans="3:3">
+    <row r="50" spans="3:3">
       <c r="C50" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" spans="3:3">
+    <row r="51" spans="3:3">
       <c r="C51" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" spans="3:3">
+    <row r="52" spans="3:3">
       <c r="C52" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" spans="3:3">
+    <row r="53" spans="3:3">
       <c r="C53" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" spans="3:3">
+    <row r="54" spans="3:3">
       <c r="C54" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" spans="3:3">
+    <row r="55" spans="3:3">
       <c r="C55" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" spans="3:3">
+    <row r="56" spans="3:3">
       <c r="C56" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" spans="3:3">
+    <row r="57" spans="3:3">
       <c r="C57" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" spans="3:3">
+    <row r="58" spans="3:3">
       <c r="C58" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" spans="3:3">
+    <row r="59" spans="3:3">
       <c r="C59" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" spans="3:3">
+    <row r="60" spans="3:3">
       <c r="C60" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" spans="3:3">
+    <row r="61" spans="3:3">
       <c r="C61" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" spans="3:3">
+    <row r="62" spans="3:3">
       <c r="C62" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" spans="3:3">
+    <row r="63" spans="3:3">
       <c r="C63" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" spans="3:3">
+    <row r="64" spans="3:3">
       <c r="C64" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" spans="3:3">
+    <row r="65" spans="3:4">
       <c r="C65" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" spans="3:3">
+    <row r="66" spans="3:4">
       <c r="C66" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" spans="3:3">
+    <row r="67" spans="3:4">
       <c r="C67" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" spans="3:3">
+    <row r="68" spans="3:4">
       <c r="C68" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" spans="3:3">
+    <row r="69" spans="3:4">
       <c r="C69" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" spans="3:3">
+    <row r="70" spans="3:4">
       <c r="C70" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" spans="3:4">
+    <row r="71" spans="3:4">
       <c r="C71" s="3" t="s">
         <v>92</v>
       </c>
@@ -1963,12 +1358,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" spans="3:3">
+    <row r="72" spans="3:4">
       <c r="C72" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1" spans="3:4">
+    <row r="73" spans="3:4">
       <c r="C73" s="3" t="s">
         <v>94</v>
       </c>
@@ -1976,27 +1371,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" spans="3:3">
+    <row r="74" spans="3:4">
       <c r="C74" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="75" s="1" customFormat="1" spans="3:3">
+    <row r="75" spans="3:4">
       <c r="C75" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="76" s="1" customFormat="1" spans="3:3">
+    <row r="76" spans="3:4">
       <c r="C76" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="77" s="1" customFormat="1" spans="3:3">
+    <row r="77" spans="3:4">
       <c r="C77" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" spans="3:4">
+    <row r="78" spans="3:4">
       <c r="C78" s="3" t="s">
         <v>99</v>
       </c>
@@ -2004,7 +1399,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" spans="3:4">
+    <row r="79" spans="3:4">
       <c r="C79" s="3" t="s">
         <v>100</v>
       </c>
@@ -2012,107 +1407,107 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" spans="3:3">
+    <row r="80" spans="3:4">
       <c r="C80" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" spans="3:3">
+    <row r="81" spans="3:3">
       <c r="C81" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="82" s="1" customFormat="1" spans="3:3">
+    <row r="82" spans="3:3">
       <c r="C82" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="83" s="1" customFormat="1" spans="3:3">
+    <row r="83" spans="3:3">
       <c r="C83" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="84" s="1" customFormat="1" spans="3:3">
+    <row r="84" spans="3:3">
       <c r="C84" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" spans="3:3">
+    <row r="85" spans="3:3">
       <c r="C85" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="86" s="1" customFormat="1" spans="3:3">
+    <row r="86" spans="3:3">
       <c r="C86" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="87" s="1" customFormat="1" spans="3:3">
+    <row r="87" spans="3:3">
       <c r="C87" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="1" spans="3:3">
+    <row r="88" spans="3:3">
       <c r="C88" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="89" s="1" customFormat="1" spans="3:3">
+    <row r="89" spans="3:3">
       <c r="C89" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="90" s="1" customFormat="1" spans="3:3">
+    <row r="90" spans="3:3">
       <c r="C90" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="91" s="1" customFormat="1" spans="3:3">
+    <row r="91" spans="3:3">
       <c r="C91" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="92" s="1" customFormat="1" spans="3:3">
+    <row r="92" spans="3:3">
       <c r="C92" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="93" s="1" customFormat="1" spans="3:3">
+    <row r="93" spans="3:3">
       <c r="C93" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="94" s="1" customFormat="1" spans="3:3">
+    <row r="94" spans="3:3">
       <c r="C94" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="95" s="1" customFormat="1" spans="3:3">
+    <row r="95" spans="3:3">
       <c r="C95" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="96" s="1" customFormat="1" spans="3:3">
+    <row r="96" spans="3:3">
       <c r="C96" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="97" s="1" customFormat="1" spans="3:3">
+    <row r="97" spans="3:10">
       <c r="C97" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="98" s="1" customFormat="1" spans="3:3">
+    <row r="98" spans="3:10">
       <c r="C98" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="99" s="1" customFormat="1" spans="3:3">
+    <row r="99" spans="3:10">
       <c r="C99" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" s="1" customFormat="1" spans="4:9">
+    <row r="100" spans="3:10">
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="7"/>
@@ -2120,7 +1515,7 @@
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
     </row>
-    <row r="101" s="1" customFormat="1" spans="5:10">
+    <row r="101" spans="3:10">
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="9"/>
@@ -2128,7 +1523,7 @@
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
     </row>
-    <row r="102" s="1" customFormat="1" spans="5:10">
+    <row r="102" spans="3:10">
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
       <c r="G102" s="11"/>
@@ -2137,22 +1532,30 @@
       <c r="J102" s="10"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$A$2:$A$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C99">
-      <formula1>'[2]#REF'!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D100" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>$C$2:$C$150</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+          <x14:formula1>
+            <xm:f>'[#REF!]#REF'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C99</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>